--- a/PowerProgression.xlsx
+++ b/PowerProgression.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PowerProgression.xlsx
+++ b/PowerProgression.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Power</t>
   </si>
@@ -74,52 +74,55 @@
     <t>Boss 1</t>
   </si>
   <si>
-    <t>Boss 2</t>
-  </si>
-  <si>
-    <t>Boss 3</t>
-  </si>
-  <si>
-    <t>Boss 4</t>
-  </si>
-  <si>
-    <t>Boss 5</t>
-  </si>
-  <si>
     <t>Start PL</t>
   </si>
   <si>
-    <t>Ending PL</t>
-  </si>
-  <si>
-    <t>~200</t>
-  </si>
-  <si>
-    <t>~300</t>
-  </si>
-  <si>
-    <t>Raid 1 BiS</t>
-  </si>
-  <si>
     <t>BiS</t>
   </si>
   <si>
-    <t>Raid 1 2/5 Farm</t>
-  </si>
-  <si>
-    <t>Raid 1 1/5 Farm</t>
-  </si>
-  <si>
-    <t>Raid 1 3/5 Farm</t>
-  </si>
-  <si>
-    <t>Raid 1 4/5 Farm</t>
-  </si>
-  <si>
-    <t>Raid 1 5/5 Avg</t>
-  </si>
-  <si>
     <t>Bosses Drop 4 Items each</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>6 slots</t>
+  </si>
+  <si>
+    <t>5 Bosses</t>
+  </si>
+  <si>
+    <t>Trinket</t>
+  </si>
+  <si>
+    <t>Slot Mods</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>Normalized Mod</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>Haste</t>
+  </si>
+  <si>
+    <t>Haste Mult</t>
   </si>
 </sst>
 </file>
@@ -181,11 +184,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -468,19 +472,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="21" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -490,377 +500,373 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <f>G$3*POWER(H$3,B2*I$3)</f>
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <f>K$3*POWER(L$3,B2*M$3)</f>
+        <v>100</v>
+      </c>
+      <c r="E2" s="4">
+        <f>B2*G$6</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2">
+        <v>1.5</v>
+      </c>
+      <c r="S2" s="4">
+        <f>R2/SUM(R$2:R$4)</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="C2" s="1">
-        <f>F$2*POWER(G$2,B2*H$2)</f>
+      <c r="C3" s="1">
+        <f>G$3*POWER(H$3,B3*I$3)</f>
         <v>45</v>
       </c>
-      <c r="D2" s="1">
-        <f>J$2*POWER(K$2,B2*L$2)</f>
+      <c r="D3" s="1">
+        <f>K$3*POWER(L$3,B3*M$3)</f>
         <v>225</v>
       </c>
-      <c r="F2">
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E9" si="0">B3*G$6</f>
+        <v>7.1</v>
+      </c>
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>1.5</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>0.02</v>
       </c>
-      <c r="J2">
+      <c r="K3">
         <v>100</v>
       </c>
-      <c r="K2">
+      <c r="L3">
         <v>1.5</v>
       </c>
-      <c r="L2">
+      <c r="M3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4">
+        <f>R3/SUM(R$2:R$4)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>200</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C16" si="0">F$2*POWER(G$2,B3*H$2)</f>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C9" si="1">G$3*POWER(H$3,B4*I$3)</f>
         <v>101.25</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D16" si="1">J$2*POWER(K$2,B3*L$2)</f>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D9" si="2">K$3*POWER(L$3,B4*M$3)</f>
         <v>506.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>14.2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4">
+        <f>R4/SUM(R$2:R$4)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>512.578125</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>2562.890625</v>
+      </c>
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>129.13673068836135</v>
-      </c>
-      <c r="D5" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5">
+        <v>0.75</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" ref="S5:S7" si="3">R5/SUM(R$2:R$4)</f>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>645.68365344180677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>250</v>
-      </c>
-      <c r="C6" s="1">
+        <v>1153.30078125</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>5766.50390625</v>
+      </c>
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>151.875</v>
-      </c>
-      <c r="D6" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="G6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <v>0.75</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>759.375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>270</v>
-      </c>
-      <c r="C7" s="1">
+        <v>2594.9267578125</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>12974.6337890625</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>178.61700154593481</v>
-      </c>
-      <c r="D7" s="1">
+        <v>42.599999999999994</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>700</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>893.08500772967409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>290</v>
-      </c>
-      <c r="C8" s="1">
+        <v>5838.585205078125</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>29192.926025390625</v>
+      </c>
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>210.06770858443107</v>
-      </c>
-      <c r="D8" s="1">
+        <v>49.699999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>705</v>
+      </c>
+      <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>1050.3385429221555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
+        <v>6080.1843661421335</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>30400.921830710668</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>50.054999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="F16">
+        <v>240</v>
+      </c>
+      <c r="G16">
+        <v>240</v>
+      </c>
+      <c r="H16">
+        <v>240</v>
+      </c>
+      <c r="I16">
+        <v>260</v>
+      </c>
+      <c r="J16">
+        <v>260</v>
+      </c>
+      <c r="K16">
+        <v>260</v>
+      </c>
+      <c r="L16">
         <v>300</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>227.8125</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>1139.0625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>305</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>237.23932292827112</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>1186.1966146413556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>400</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>512.578125</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>2562.890625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>500</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>1153.30078125</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>5766.50390625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>600</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>2594.9267578125</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>12974.6337890625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>700</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>5838.585205078125</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>29192.926025390625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>705</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>6080.1843661421335</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>30400.921830710668</v>
-      </c>
-    </row>
-    <row r="17" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="21" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+      <c r="M16">
+        <v>300</v>
+      </c>
+      <c r="N16">
+        <v>300</v>
+      </c>
+      <c r="O16">
+        <v>320</v>
+      </c>
+      <c r="P16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
         <v>22</v>
       </c>
-      <c r="E23">
-        <v>220</v>
-      </c>
-      <c r="F23">
-        <v>220</v>
-      </c>
-      <c r="G23">
-        <v>240</v>
-      </c>
-      <c r="H23">
-        <v>240</v>
-      </c>
-      <c r="I23">
-        <v>240</v>
-      </c>
-      <c r="J23">
-        <v>240</v>
-      </c>
-      <c r="K23">
-        <v>260</v>
-      </c>
-      <c r="L23">
-        <v>260</v>
-      </c>
-      <c r="M23">
-        <v>260</v>
-      </c>
-      <c r="N23">
-        <v>260</v>
-      </c>
-      <c r="O23">
-        <v>280</v>
-      </c>
-      <c r="P23">
-        <v>280</v>
-      </c>
-      <c r="Q23">
-        <v>280</v>
-      </c>
-      <c r="R23">
-        <v>280</v>
-      </c>
-      <c r="S23">
-        <v>300</v>
-      </c>
-      <c r="T23">
-        <v>300</v>
-      </c>
-      <c r="U23">
-        <v>300</v>
-      </c>
-      <c r="V23">
-        <v>300</v>
-      </c>
-      <c r="W23">
-        <v>310</v>
-      </c>
-      <c r="X23">
-        <v>310</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F16:O16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PowerProgression.xlsx
+++ b/PowerProgression.xlsx
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +484,7 @@
     <col min="4" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
     <col min="19" max="19" width="17.42578125" customWidth="1"/>
     <col min="20" max="21" width="14.28515625" customWidth="1"/>
@@ -793,6 +793,8 @@
       <c r="H14" t="s">
         <v>23</v>
       </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
@@ -810,6 +812,8 @@
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D16">
@@ -848,11 +852,23 @@
       <c r="P16">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>22</v>
       </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F16:O16">
@@ -868,5 +884,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>